--- a/SoftWare/SDWe/SDWe050_From0817_Release20241214_适配山东/SDWe设计备注.xlsx
+++ b/SoftWare/SDWe/SDWe050_From0817_Release20241214_适配山东/SDWe设计备注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址定义" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="410">
   <si>
     <t>类型</t>
   </si>
@@ -1270,6 +1270,9 @@
   </si>
   <si>
     <t>出现CRC错误时，删除VT_SET下的checksum.bin文件</t>
+  </si>
+  <si>
+    <t>添加字库文件</t>
   </si>
 </sst>
 </file>
@@ -2258,6 +2261,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="15087600"/>
+          <a:ext cx="15478125" cy="6743700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="22212300"/>
+          <a:ext cx="18288000" cy="9820275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2521,8 +2608,8 @@
   <sheetPr/>
   <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
@@ -6481,10 +6568,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F32"/>
+  <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" outlineLevelCol="5"/>
@@ -6528,6 +6615,14 @@
         <v>408</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
